--- a/data_from_sankey_figure_3_manuscript/data_sankey_Figure_3.xlsx
+++ b/data_from_sankey_figure_3_manuscript/data_sankey_Figure_3.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rla44\OneDrive\Github\UK-wood-mfa\data_from_sankey_figure_3_manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rla44\OneDrive\Github\UK-wood-end-use-flows\data_from_sankey_figure_3_manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB350A6-886B-44F2-9AF9-AAE73B25CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCFDF2-9D43-498A-BEB0-25EA9B59459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="297">
   <si>
     <t>source</t>
   </si>
@@ -349,15 +362,6 @@
     <t>exports PostConsumerWood</t>
   </si>
   <si>
-    <t>exports PreConsumerWasteConstruction</t>
-  </si>
-  <si>
-    <t>exports PreConsumerWasteProducts</t>
-  </si>
-  <si>
-    <t>PreConsumerWasteProductsConsumption</t>
-  </si>
-  <si>
     <t>exports Pulp</t>
   </si>
   <si>
@@ -823,12 +827,6 @@
     <t>imports PostConsumerWood</t>
   </si>
   <si>
-    <t>imports PreConsumerWasteConstruction</t>
-  </si>
-  <si>
-    <t>imports PreConsumerWasteProducts</t>
-  </si>
-  <si>
     <t>imports Pulp</t>
   </si>
   <si>
@@ -914,6 +912,18 @@
   </si>
   <si>
     <t>imports WoodenSeats</t>
+  </si>
+  <si>
+    <t>IndustrialResidues</t>
+  </si>
+  <si>
+    <t>exports IndustrialResidues</t>
+  </si>
+  <si>
+    <t>IndustrialResiduesConsumption</t>
+  </si>
+  <si>
+    <t>imports IndustrialResidues</t>
   </si>
 </sst>
 </file>
@@ -980,9 +990,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -995,6 +1002,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,39 +1310,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2">
@@ -1340,11 +1350,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
@@ -1353,12 +1363,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4">
@@ -1366,75 +1376,75 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>142</v>
+      <c r="A5" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>142</v>
+      <c r="C5" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D5">
         <v>15015605.639110001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>142</v>
+      <c r="C6" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D6">
         <v>563641718.42981195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>142</v>
+      <c r="C7" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D7">
         <v>321462693.94103003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>142</v>
+      <c r="C8" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D8">
         <v>1778971449.530683</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>142</v>
+      <c r="C9" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D9">
         <v>427985396.39196098</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10">
@@ -1442,11 +1452,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11">
@@ -1455,12 +1465,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12">
@@ -1468,13 +1478,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13">
@@ -1482,11 +1492,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14">
@@ -1495,12 +1505,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15">
@@ -1508,13 +1518,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16">
@@ -1522,11 +1532,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17">
@@ -1534,13 +1544,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18">
@@ -1548,11 +1558,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D19">
@@ -1560,13 +1570,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D20">
@@ -1574,11 +1584,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D21">
@@ -1587,12 +1597,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D22">
@@ -1600,13 +1610,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D23">
@@ -1614,11 +1624,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D24">
@@ -1626,13 +1636,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>137</v>
+      <c r="A25" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D25">
@@ -1640,11 +1650,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D26">
@@ -1652,13 +1662,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D27">
@@ -1666,11 +1676,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28">
@@ -1678,13 +1688,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>146</v>
+      <c r="A29" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D29">
@@ -1692,11 +1702,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30">
@@ -1704,13 +1714,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D31">
@@ -1718,11 +1728,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D32">
@@ -1730,11 +1740,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D33">
@@ -1742,11 +1752,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D34">
@@ -1754,11 +1764,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D35">
@@ -1766,11 +1776,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D36">
@@ -1778,11 +1788,11 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D37">
@@ -1790,11 +1800,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D38">
@@ -1802,13 +1812,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>176</v>
+      <c r="A39" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D39">
@@ -1816,11 +1826,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D40">
@@ -1828,13 +1838,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D41">
@@ -1842,11 +1852,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D42">
@@ -1860,7 +1870,7 @@
       <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D43">
@@ -1868,13 +1878,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D44">
@@ -1882,11 +1892,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D45">
@@ -1895,12 +1905,12 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D46">
@@ -1908,13 +1918,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D47">
@@ -1922,11 +1932,11 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D48">
@@ -1934,13 +1944,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>164</v>
+      <c r="A49" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D49">
@@ -1948,11 +1958,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D50">
@@ -1960,13 +1970,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D51">
@@ -1974,11 +1984,11 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D52">
@@ -1987,12 +1997,12 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D53">
@@ -2000,13 +2010,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D54">
@@ -2014,11 +2024,11 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D55">
@@ -2027,12 +2037,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D56">
@@ -2040,13 +2050,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D57">
@@ -2054,11 +2064,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D58">
@@ -2067,12 +2077,12 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D59">
@@ -2080,13 +2090,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D60">
@@ -2094,11 +2104,11 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D61">
@@ -2106,11 +2116,11 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D62">
@@ -2119,12 +2129,12 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D63">
@@ -2132,98 +2142,98 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>143</v>
+      <c r="A64" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>143</v>
+      <c r="C64" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D64">
         <v>23762765.864872999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>143</v>
+      <c r="C65" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D65">
         <v>13618735.631327</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>143</v>
+      <c r="C66" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D66">
         <v>384344492.74237698</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>143</v>
+      <c r="C67" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D67">
         <v>40228074.58788</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>143</v>
+      <c r="C68" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D68">
         <v>183139835.656883</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>143</v>
+      <c r="C69" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D69">
         <v>20838148.108410999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>143</v>
+      <c r="C70" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D70">
         <v>20289186.76052</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>143</v>
+      <c r="C71" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D71">
         <v>233.64498800000001</v>
@@ -2236,7 +2246,7 @@
       <c r="B72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D72">
@@ -2244,13 +2254,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D73">
@@ -2258,11 +2268,11 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D74">
@@ -2271,12 +2281,12 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D75">
@@ -2284,13 +2294,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D76">
@@ -2298,11 +2308,11 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D77">
@@ -2311,26 +2321,26 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>221</v>
+      <c r="C78" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D78">
         <v>5780.9114600000003</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>154</v>
+      <c r="A79" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D79">
@@ -2338,11 +2348,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D80">
@@ -2350,13 +2360,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D81">
@@ -2364,11 +2374,11 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D82">
@@ -2382,7 +2392,7 @@
       <c r="B83" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D83">
@@ -2396,7 +2406,7 @@
       <c r="B84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D84">
@@ -2410,7 +2420,7 @@
       <c r="B85" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D85">
@@ -2419,12 +2429,12 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D86">
@@ -2438,7 +2448,7 @@
       <c r="B87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D87">
@@ -2447,12 +2457,12 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D88">
@@ -2460,13 +2470,13 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D89">
@@ -2474,11 +2484,11 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D90">
@@ -2486,13 +2496,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D91">
@@ -2500,11 +2510,11 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D92">
@@ -2513,12 +2523,12 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D93">
@@ -2532,7 +2542,7 @@
       <c r="B94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D94">
@@ -2540,13 +2550,13 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D95">
@@ -2554,11 +2564,11 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D96">
@@ -2566,13 +2576,13 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D97">
@@ -2580,11 +2590,11 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D98">
@@ -2592,13 +2602,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>166</v>
+      <c r="A99" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D99">
@@ -2606,11 +2616,11 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D100">
@@ -2618,13 +2628,13 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D101">
@@ -2632,11 +2642,11 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D102">
@@ -2645,12 +2655,12 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D103">
@@ -2658,13 +2668,13 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D104">
@@ -2672,11 +2682,11 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D105">
@@ -2684,13 +2694,13 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D106">
@@ -2698,11 +2708,11 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D107">
@@ -2710,13 +2720,13 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D108">
@@ -2724,11 +2734,11 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D109">
@@ -2737,12 +2747,12 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D110">
@@ -2750,13 +2760,13 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D111">
@@ -2764,11 +2774,11 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D112">
@@ -2776,13 +2786,13 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D113">
@@ -2790,11 +2800,11 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D114">
@@ -2802,13 +2812,13 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D115">
@@ -2816,11 +2826,11 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D116">
@@ -2828,11 +2838,11 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D117">
@@ -2840,11 +2850,11 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D118">
@@ -2852,11 +2862,11 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D119">
@@ -2864,11 +2874,11 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D120">
@@ -2876,11 +2886,11 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D121">
@@ -2888,11 +2898,11 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D122">
@@ -2900,11 +2910,11 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D123">
@@ -2912,13 +2922,13 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>177</v>
+      <c r="A124" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D124">
@@ -2926,11 +2936,11 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D125">
@@ -2938,13 +2948,13 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D126">
@@ -2952,11 +2962,11 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="7"/>
       <c r="B127" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D127">
@@ -2964,13 +2974,13 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D128">
@@ -2978,11 +2988,11 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="7"/>
       <c r="B129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D129">
@@ -2990,13 +3000,13 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D130">
@@ -3004,11 +3014,11 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D131">
@@ -3016,11 +3026,11 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="7"/>
       <c r="B132" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D132">
@@ -3028,11 +3038,11 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="7"/>
       <c r="B133" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D133">
@@ -3040,11 +3050,11 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D134">
@@ -3052,11 +3062,11 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D135">
@@ -3064,11 +3074,11 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="A136" s="7"/>
       <c r="B136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D136">
@@ -3076,11 +3086,11 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D137">
@@ -3088,11 +3098,11 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D138">
@@ -3101,12 +3111,12 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D139">
@@ -3114,13 +3124,13 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D140">
@@ -3128,11 +3138,11 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
+      <c r="A141" s="7"/>
       <c r="B141" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D141">
@@ -3140,13 +3150,13 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D142">
@@ -3154,11 +3164,11 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C143" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D143">
@@ -3167,13 +3177,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>222</v>
+      <c r="C144" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D144">
         <v>4087.7282580000001</v>
@@ -3181,26 +3191,26 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>223</v>
+        <v>294</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D145">
         <v>5780.9114600000003</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>19</v>
+      <c r="A146" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C146" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D146">
@@ -3208,11 +3218,11 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="7"/>
       <c r="B147" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C147" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D147">
@@ -3220,13 +3230,13 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C148" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D148">
@@ -3234,11 +3244,11 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="7"/>
       <c r="B149" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C149" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D149">
@@ -3246,11 +3256,11 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C150" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D150">
@@ -3258,11 +3268,11 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="7"/>
       <c r="B151" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C151" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D151">
@@ -3270,11 +3280,11 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="7"/>
       <c r="B152" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C152" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D152">
@@ -3282,13 +3292,13 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D153">
@@ -3296,11 +3306,11 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
+      <c r="A154" s="7"/>
       <c r="B154" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D154">
@@ -3308,13 +3318,13 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>122</v>
+      <c r="A155" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D155">
@@ -3322,38 +3332,38 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
+      <c r="A156" s="7"/>
       <c r="B156" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D156">
         <v>4003993897.9013848</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>120</v>
+      <c r="A157" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D157">
         <v>1714551.6702660001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
+      <c r="A158" s="7"/>
       <c r="B158" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D158">
         <v>459594544.95382398</v>
@@ -3364,36 +3374,36 @@
         <v>60</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D159">
         <v>384344492.74237698</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>123</v>
+      <c r="A160" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D160">
         <v>6887009820.6906033</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
+      <c r="A161" s="7"/>
       <c r="B161" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D161">
         <v>4944426432.8510885</v>
@@ -3401,125 +3411,125 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D162">
         <v>11699304945.62211</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>117</v>
+      <c r="A163" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D163">
         <v>5780.8739880000003</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="7"/>
       <c r="B164" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D164">
         <v>1145390437.809247</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="7"/>
       <c r="B165" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D165">
         <v>102276855.483743</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
+      <c r="A166" s="7"/>
       <c r="B166" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D166">
         <v>2256921160.4941711</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
+      <c r="A167" s="7"/>
       <c r="B167" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D167">
         <v>499405444.19293612</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>129</v>
+      <c r="A168" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D168">
         <v>263115763.135575</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D169">
         <v>4560680194.624445</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D170">
         <v>2454545181.5715508</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D171">
         <v>1315778619.98228</v>
@@ -3527,13 +3537,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D172">
         <v>8557031503.620863</v>
@@ -3541,78 +3551,78 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>130</v>
+      <c r="C173" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D173">
         <v>2454545181.5715508</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>130</v>
+      <c r="A174" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D174">
         <v>5780.9009830000005</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D175">
         <v>2454545181.5906959</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>135</v>
+      <c r="A176" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D176">
         <v>5780.9079069999998</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
+      <c r="A177" s="7"/>
       <c r="B177" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D177">
         <v>2450117572.9380569</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>132</v>
+      <c r="A178" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D178">
@@ -3620,38 +3630,38 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
+      <c r="A179" s="7"/>
       <c r="B179" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D179">
         <v>2450117572.9314609</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>138</v>
+      <c r="A180" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D181">
         <v>260890378.315817</v>
@@ -3659,39 +3669,39 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D182">
         <v>260890378.315817</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>141</v>
+      <c r="A183" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D183">
         <v>14276785.693871001</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D184">
         <v>2088783032.68643</v>
@@ -3699,91 +3709,91 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D185">
         <v>1464265215.239126</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D186">
         <v>34793847.224462003</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
+      <c r="A187" s="7"/>
       <c r="B187" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D187">
         <v>34795986.362630002</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>157</v>
+      <c r="A188" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D188">
         <v>3051360638.6817598</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
+      <c r="A189" s="7"/>
       <c r="B189" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D189">
         <v>3050813893.4503279</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>147</v>
+      <c r="A190" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
+      <c r="A191" s="7"/>
       <c r="B191" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D191">
         <v>1364435056.6113069</v>
@@ -3791,52 +3801,52 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D192">
         <v>1364435056.6113069</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>150</v>
+      <c r="A193" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D193">
         <v>5778.6470650000001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D194">
         <v>3408149835.473628</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>168</v>
+      <c r="A195" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C195" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D195">
@@ -3844,38 +3854,38 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D196">
         <v>3408149829.550961</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>152</v>
+      <c r="A197" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D197">
         <v>355265.79053300002</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>152</v>
+      <c r="C198" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D198">
         <v>197746903.502464</v>
@@ -3883,123 +3893,123 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D199">
         <v>196855730.596497</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>162</v>
+      <c r="A200" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D200">
         <v>272176647.46763802</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
+      <c r="A201" s="7"/>
       <c r="B201" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D201">
         <v>624707970.70825493</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
+      <c r="A202" s="7"/>
       <c r="B202" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D202">
         <v>577365491.13030493</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
+      <c r="A203" s="7"/>
       <c r="B203" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D203">
         <v>260890378.315817</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
+      <c r="A204" s="7"/>
       <c r="B204" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D204">
         <v>6102174532.1320992</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
+      <c r="A205" s="7"/>
       <c r="B205" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D205">
         <v>1658035718.3280771</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
+      <c r="A206" s="7"/>
       <c r="B206" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D206">
         <v>5781.2010289999998</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
+      <c r="A207" s="7"/>
       <c r="B207" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D207">
         <v>491667112.22022313</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
+      <c r="A208" s="7"/>
       <c r="B208" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D208">
         <v>5787.1423260000001</v>
@@ -4007,329 +4017,329 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D209">
         <v>9181499420.8306084</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>144</v>
+      <c r="A210" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>144</v>
+        <v>160</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D210">
         <v>208472923.37142</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
+      <c r="A211" s="7"/>
       <c r="B211" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>144</v>
+      <c r="C211" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D211">
         <v>370202515.46736699</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
+      <c r="A212" s="7"/>
       <c r="B212" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>144</v>
+        <v>161</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D212">
         <v>793556506.60548091</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
+      <c r="A213" s="7"/>
       <c r="B213" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>144</v>
+        <v>162</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D213">
         <v>4026663.104239</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
+      <c r="A214" s="7"/>
       <c r="B214" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>144</v>
+        <v>163</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D214">
         <v>2213350.5371269998</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
+      <c r="A215" s="7"/>
       <c r="B215" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>144</v>
+      <c r="C215" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D215">
         <v>54885815.990754999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
+      <c r="A216" s="7"/>
       <c r="B216" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>144</v>
+      <c r="C216" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D216">
         <v>1987511236.2525499</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
+      <c r="A217" s="7"/>
       <c r="B217" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D217">
         <v>272303957.83555299</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
+      <c r="A218" s="7"/>
       <c r="B218" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>144</v>
+        <v>164</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D218">
         <v>1364435056.6113069</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
+      <c r="A219" s="7"/>
       <c r="B219" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>144</v>
+        <v>165</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D219">
         <v>3786517431.3407092</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
+      <c r="A220" s="7"/>
       <c r="B220" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>144</v>
+        <v>166</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D220">
         <v>30076698.387987811</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
+      <c r="A221" s="7"/>
       <c r="B221" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>144</v>
+        <v>167</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D221">
         <v>294739832.42983299</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
+      <c r="A222" s="7"/>
       <c r="B222" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>144</v>
+        <v>168</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D222">
         <v>131633909.712805</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
+      <c r="A223" s="7"/>
       <c r="B223" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>144</v>
+        <v>169</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D223">
         <v>231579589.07732999</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
+      <c r="A224" s="7"/>
       <c r="B224" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>144</v>
+      <c r="C224" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D224">
         <v>70914158.503125995</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
+      <c r="A225" s="7"/>
       <c r="B225" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>144</v>
+      <c r="C225" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D225">
         <v>325879851.46060401</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
+      <c r="A226" s="7"/>
       <c r="B226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>144</v>
+      <c r="C226" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D226">
         <v>37058016.430731997</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
+      <c r="A227" s="7"/>
       <c r="B227" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>144</v>
+      <c r="C227" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D227">
         <v>36142859.072691001</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
+      <c r="A228" s="7"/>
       <c r="B228" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>144</v>
+      <c r="C228" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D228">
         <v>428.77594499999998</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>174</v>
+      <c r="A229" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D229">
         <v>1.2777639999999999</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
+      <c r="A230" s="7"/>
       <c r="B230" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>174</v>
+      <c r="C230" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D230">
         <v>26552234.692738779</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
+      <c r="A231" s="7"/>
       <c r="B231" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>174</v>
+      <c r="C231" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D231">
         <v>36912977.305021003</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
+      <c r="A232" s="7"/>
       <c r="B232" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>174</v>
+      <c r="C232" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D232">
         <v>169453004.34327</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
+      <c r="A233" s="7"/>
       <c r="B233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>174</v>
+      <c r="C233" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D233">
         <v>19077632.480763</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
+      <c r="A234" s="7"/>
       <c r="B234" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>174</v>
+      <c r="C234" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D234">
         <v>18644308.004735999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
+      <c r="A235" s="7"/>
       <c r="B235" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>174</v>
+      <c r="C235" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D235">
         <v>120.708624</v>
@@ -4337,51 +4347,51 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D236">
         <v>108763899.93523</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>178</v>
+      <c r="A237" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D237">
         <v>0.32204899999999997</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
+      <c r="A238" s="7"/>
       <c r="B238" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D238">
         <v>1097404032.2388151</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
+      <c r="A239" s="7"/>
       <c r="B239" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D239">
         <v>4016603979.789526</v>
@@ -4392,10 +4402,10 @@
         <v>10</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D240">
         <v>1778971449.530683</v>
@@ -4403,13 +4413,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D241">
         <v>1315778619.98228</v>
@@ -4417,52 +4427,52 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D242">
         <v>1658035718.3280771</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>181</v>
+      <c r="A243" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D243">
         <v>5304167.5161140002</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
+      <c r="A244" s="7"/>
       <c r="B244" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D244">
         <v>87239898.675159901</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>169</v>
+      <c r="A245" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C245" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D245">
@@ -4470,38 +4480,38 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
+      <c r="A246" s="7"/>
       <c r="B246" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D246">
         <v>15027762.66350797</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>184</v>
+      <c r="A247" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D247">
         <v>6995479.1746149994</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
+      <c r="A248" s="7"/>
       <c r="B248" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D248">
         <v>167638887.007763</v>
@@ -4509,13 +4519,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D249">
         <v>5781.2010289999998</v>
@@ -4523,12 +4533,12 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D250">
@@ -4536,99 +4546,99 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>192</v>
+      <c r="A251" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D251">
         <v>24449429.497113001</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
+      <c r="A252" s="7"/>
       <c r="B252" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D252">
         <v>6159864.7596050007</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
+      <c r="A253" s="7"/>
       <c r="B253" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D253">
         <v>60851349.543963999</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
+      <c r="A254" s="7"/>
       <c r="B254" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D254">
         <v>27207344.615830999</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
+      <c r="A255" s="7"/>
       <c r="B255" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D255">
         <v>22692742.845977999</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
+      <c r="A256" s="7"/>
       <c r="B256" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D256">
         <v>44901921.821679004</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
+      <c r="A257" s="7"/>
       <c r="B257" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D257">
         <v>80581376.137876004</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>170</v>
+      <c r="A258" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C258" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D258">
@@ -4636,99 +4646,99 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
+      <c r="A259" s="7"/>
       <c r="B259" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D259">
         <v>264862185.97081101</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>194</v>
+      <c r="A260" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D260">
         <v>151441.76723299999</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
+      <c r="A261" s="7"/>
       <c r="B261" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D261">
         <v>3384752.5001099999</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
+      <c r="A262" s="7"/>
       <c r="B262" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D262">
         <v>32819958.063108999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
+      <c r="A263" s="7"/>
       <c r="B263" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D263">
         <v>14713008.202246999</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
+      <c r="A264" s="7"/>
       <c r="B264" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D264">
         <v>24236400.573646002</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
+      <c r="A265" s="7"/>
       <c r="B265" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D265">
         <v>43438023.725681998</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>171</v>
+      <c r="A266" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C266" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D266">
@@ -4736,51 +4746,51 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
+      <c r="A267" s="7"/>
       <c r="B267" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D267">
         <v>118483624.29108199</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>197</v>
+      <c r="A268" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D268">
         <v>49080034.933637001</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
+      <c r="A269" s="7"/>
       <c r="B269" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D269">
         <v>13904787121.97789</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>200</v>
+      <c r="A270" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C270" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D270">
@@ -4788,12 +4798,12 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
+      <c r="A271" s="7"/>
       <c r="B271" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D271">
         <v>775254996.39666295</v>
@@ -4804,10 +4814,10 @@
         <v>11</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D272">
         <v>427985396.39196098</v>
@@ -4815,138 +4825,138 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D273">
         <v>491667112.22022313</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>198</v>
+      <c r="A274" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D274">
         <v>0.62317200000000006</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
+      <c r="A275" s="7"/>
       <c r="B275" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D275">
         <v>1110206188.2177529</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>202</v>
+      <c r="A276" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D276">
         <v>4585129.8901239997</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
+      <c r="A277" s="7"/>
       <c r="B277" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D277">
         <v>5557135.2277339986</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
+      <c r="A278" s="7"/>
       <c r="B278" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D278">
         <v>54999659.420978002</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
+      <c r="A279" s="7"/>
       <c r="B279" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>202</v>
+        <v>185</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D279">
         <v>24585584.304251999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
+      <c r="A280" s="7"/>
       <c r="B280" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D280">
         <v>20514146.018780999</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
+      <c r="A281" s="7"/>
       <c r="B281" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D281">
         <v>40580876.058399998</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
+      <c r="A282" s="7"/>
       <c r="B282" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D282">
         <v>72836330.732999995</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>172</v>
+      <c r="A283" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C283" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D283">
@@ -4954,38 +4964,38 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
+      <c r="A284" s="7"/>
       <c r="B284" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D284">
         <v>208002732.59307399</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>205</v>
+      <c r="A285" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D285">
         <v>312601.479307</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
+      <c r="A286" s="7"/>
       <c r="B286" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D286">
         <v>10301092.428695999</v>
@@ -4993,52 +5003,52 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D287">
         <v>5787.1423260000001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>208</v>
+      <c r="A288" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D288">
         <v>22611506.385306001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
+      <c r="A289" s="7"/>
       <c r="B289" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D289">
         <v>565470027.99938297</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C290" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D290">
@@ -5046,51 +5056,51 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
+      <c r="A291" s="7"/>
       <c r="B291" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D291">
         <v>231733304.652071</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>211</v>
+      <c r="A292" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D292">
         <v>22620628.160050001</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
+      <c r="A293" s="7"/>
       <c r="B293" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D293">
         <v>1104649012.531357</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C294" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D294">
@@ -5098,51 +5108,51 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
+      <c r="A295" s="7"/>
       <c r="B295" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D295">
         <v>1061905800.947636</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>214</v>
+      <c r="A296" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D296">
         <v>20050562.728459999</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
+      <c r="A297" s="7"/>
       <c r="B297" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D297">
         <v>166124102.350003</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C298" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D298">
@@ -5150,51 +5160,51 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
+      <c r="A299" s="7"/>
       <c r="B299" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D299">
         <v>120323987.757982</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>217</v>
+      <c r="A300" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D300">
         <v>75109309.564770997</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
+      <c r="A301" s="7"/>
       <c r="B301" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D301">
         <v>985222829.74525297</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C302" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D302">
@@ -5202,51 +5212,51 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
+      <c r="A303" s="7"/>
       <c r="B303" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D303">
         <v>117552946.83705799</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>220</v>
+      <c r="A304" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D304">
         <v>60066001.517725997</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
+      <c r="A305" s="7"/>
       <c r="B305" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D305">
         <v>231152153.11149099</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C306" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D306">
@@ -5254,12 +5264,12 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
+      <c r="A307" s="7"/>
       <c r="B307" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D307">
         <v>1205.9486429999999</v>
@@ -5267,12 +5277,12 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="C308" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D308">
@@ -5281,13 +5291,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D309">
         <v>20922378.0264</v>
@@ -5295,12 +5305,12 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C310" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D310">
@@ -5309,12 +5319,12 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C311" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D311">
@@ -5323,12 +5333,12 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C312" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D312">
@@ -5337,12 +5347,12 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C313" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D313">
@@ -5351,12 +5361,12 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C314" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D314">
@@ -5365,12 +5375,12 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C315" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D315">
@@ -5379,12 +5389,12 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="C316" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D316">
@@ -5393,12 +5403,12 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="C317" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D317">
@@ -5407,12 +5417,12 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C318" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D318">
@@ -5421,12 +5431,12 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C319" s="4" t="s">
+      <c r="C319" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D319">
@@ -5435,12 +5445,12 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C320" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D320">
@@ -5449,12 +5459,12 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C321" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D321">
@@ -5463,12 +5473,12 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C322" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D322">
@@ -5477,12 +5487,12 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C323" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D323">
@@ -5491,13 +5501,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D324">
         <v>651425486.63447905</v>
@@ -5505,12 +5515,12 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C325" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D325">
@@ -5519,12 +5529,12 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C326" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D326">
@@ -5533,13 +5543,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D327">
         <v>5780.9114600000003</v>
@@ -5547,12 +5557,12 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C328" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D328">
@@ -5561,12 +5571,12 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="C329" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D329">
@@ -5575,12 +5585,12 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="C330" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D330">
@@ -5589,12 +5599,12 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C331" s="4" t="s">
+      <c r="C331" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D331">
@@ -5603,12 +5613,12 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="C332" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D332">
@@ -5617,12 +5627,12 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C333" s="4" t="s">
+      <c r="C333" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D333">
@@ -5631,12 +5641,12 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C334" s="4" t="s">
+      <c r="C334" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D334">
@@ -5645,12 +5655,12 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C335" s="4" t="s">
+      <c r="C335" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D335">
@@ -5659,12 +5669,12 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C336" s="4" t="s">
+      <c r="C336" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D336">
@@ -5673,12 +5683,12 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C337" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D337">
@@ -5687,12 +5697,12 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C338" s="4" t="s">
+      <c r="C338" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D338">
@@ -5701,12 +5711,12 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C339" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D339">
@@ -5715,12 +5725,12 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C340" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D340">
@@ -5729,13 +5739,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D341">
         <v>4087.7282580000001</v>
@@ -5743,13 +5753,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>223</v>
+        <v>293</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D342">
         <v>5780.9114600000003</v>
@@ -5757,12 +5767,12 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C343" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D343">
@@ -5771,12 +5781,12 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C344" s="4" t="s">
+      <c r="C344" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D344">
@@ -5785,13 +5795,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C345" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D345">
         <v>76964603.881668001</v>
@@ -5799,13 +5809,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D346">
         <v>132131307.91957401</v>
@@ -5813,13 +5823,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D347">
         <v>5780.9526459999997</v>
@@ -5827,13 +5837,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D348">
         <v>37088255.692978002</v>
@@ -5841,13 +5851,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D349">
         <v>5780.9201869999997</v>
@@ -5855,13 +5865,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D350">
         <v>5780.9144889999998</v>
@@ -5869,13 +5879,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C351" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -5883,13 +5893,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D352">
         <v>638794603.14119101</v>
@@ -5897,13 +5907,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -5911,13 +5921,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C354" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D354">
         <v>5784.5698600000014</v>
@@ -5925,13 +5935,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D355">
         <v>1246438.6963490001</v>
@@ -5939,13 +5949,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D356">
         <v>805529997.81516302</v>
@@ -5953,13 +5963,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D357">
         <v>6950885757.0414171</v>
@@ -5967,13 +5977,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D358">
         <v>161762204.26858699</v>
@@ -5981,13 +5991,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D359">
         <v>361222224.50929999</v>
@@ -5995,13 +6005,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D360">
         <v>77525122.997352004</v>
@@ -6009,13 +6019,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D361">
         <v>174628584.98128799</v>
@@ -6023,13 +6033,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D362">
         <v>1981843.252566</v>
@@ -6037,13 +6047,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D363">
         <v>259960.54079900001</v>
@@ -6051,13 +6061,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D364">
         <v>13178612160.514851</v>
@@ -6065,13 +6075,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D365">
         <v>190553680.22875601</v>
@@ -6079,13 +6089,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D366">
         <v>15656129.06079</v>
@@ -6093,13 +6103,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D367">
         <v>10607906.765696</v>
@@ -6107,13 +6117,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D368">
         <v>356348229.73271</v>
@@ -6121,13 +6131,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C369" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D369">
         <v>65363839.743869998</v>
@@ -6135,13 +6145,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D370">
         <v>65850677.320541002</v>
@@ -6149,13 +6159,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D371">
         <v>942779192.47298396</v>
@@ -6163,13 +6173,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D372">
         <v>291216948.68054801</v>

--- a/data_from_sankey_figure_3_manuscript/data_sankey_Figure_3.xlsx
+++ b/data_from_sankey_figure_3_manuscript/data_sankey_Figure_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rla44\OneDrive\Github\UK-wood-end-use-flows\data_from_sankey_figure_3_manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCFDF2-9D43-498A-BEB0-25EA9B59459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B48131-DB1D-4626-A624-8E4AB21F9311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="296">
   <si>
     <t>source</t>
   </si>
@@ -59,9 +59,6 @@
     <t>exports ByProducts</t>
   </si>
   <si>
-    <t>OtherEnergyFeedstocksByProducts</t>
-  </si>
-  <si>
     <t>PulpmillsByProducts</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Doors</t>
   </si>
   <si>
-    <t>PreConsumerWasteProducts</t>
-  </si>
-  <si>
     <t>exports EndTerracedHouses</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>NewBuildsConsumption</t>
   </si>
   <si>
-    <t>exports NewPulp</t>
-  </si>
-  <si>
     <t>Pulp</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
     <t>PlywoodToRMIAndOther</t>
   </si>
   <si>
-    <t>exports PostConsumerWood</t>
-  </si>
-  <si>
     <t>exports Pulp</t>
   </si>
   <si>
@@ -401,27 +389,6 @@
     <t>exports RecycledPulp</t>
   </si>
   <si>
-    <t>exports RecycledWoodFibre</t>
-  </si>
-  <si>
-    <t>OtherEnergyFeedstocksPostConsumerWood</t>
-  </si>
-  <si>
-    <t>RecycledWoodFibreProcessingForPallets</t>
-  </si>
-  <si>
-    <t>WBPFibresRecycledWoodFibre</t>
-  </si>
-  <si>
-    <t>RecycledWoodFibre</t>
-  </si>
-  <si>
-    <t>RecycledWoodFibreToPallets</t>
-  </si>
-  <si>
-    <t>exports RecycledWoodFibreToPallets</t>
-  </si>
-  <si>
     <t>RefurbishedPalletsManufacturing</t>
   </si>
   <si>
@@ -434,15 +401,9 @@
     <t>RefurbishedPallets</t>
   </si>
   <si>
-    <t>exports RoundwoodToFencingAndOutdoor</t>
-  </si>
-  <si>
     <t>FencingPostsManufacturing</t>
   </si>
   <si>
-    <t>RoundwoodToFencingAndOutdoor</t>
-  </si>
-  <si>
     <t>exports SanitaryPapers</t>
   </si>
   <si>
@@ -461,15 +422,9 @@
     <t>SoftwoodSawnwood</t>
   </si>
   <si>
-    <t>exports SawnwoodToFencingAndOutdoor</t>
-  </si>
-  <si>
     <t>FencingRailsAndBoardsManufacturing</t>
   </si>
   <si>
-    <t>SawnwoodToFencingAndOutdoor</t>
-  </si>
-  <si>
     <t>exports SawnwoodToRMIAndOther</t>
   </si>
   <si>
@@ -488,15 +443,9 @@
     <t>exports SoftwoodRoundwood</t>
   </si>
   <si>
-    <t>NewPulpMaking</t>
-  </si>
-  <si>
     <t>OtherEnergyFeedstocksSoftwoodRoundwood</t>
   </si>
   <si>
-    <t>RoundwoodToFencingAndOutdoorManufacturing</t>
-  </si>
-  <si>
     <t>SawmillsSoftwood</t>
   </si>
   <si>
@@ -527,9 +476,6 @@
     <t>OtherObjectsManufacturing</t>
   </si>
   <si>
-    <t>SawnwoodToFencingAndOutdoorManufacturing</t>
-  </si>
-  <si>
     <t>SawnwoodToRepairMaintenanceImprovement</t>
   </si>
   <si>
@@ -689,12 +635,6 @@
     <t>WoodenSeats</t>
   </si>
   <si>
-    <t>NewPulp</t>
-  </si>
-  <si>
-    <t>PostConsumerWood</t>
-  </si>
-  <si>
     <t>PreConsumerWasteConstruction</t>
   </si>
   <si>
@@ -716,9 +656,6 @@
     <t>RecycledPaperDelivery</t>
   </si>
   <si>
-    <t>RecycledWoodFibreDelivery</t>
-  </si>
-  <si>
     <t>SoftwoodRoundwoodDelivery</t>
   </si>
   <si>
@@ -782,9 +719,6 @@
     <t>imports NewBuilds</t>
   </si>
   <si>
-    <t>imports NewPulp</t>
-  </si>
-  <si>
     <t>imports OtherEnergyFeedstocks</t>
   </si>
   <si>
@@ -824,9 +758,6 @@
     <t>imports PlywoodToRMIAndOther</t>
   </si>
   <si>
-    <t>imports PostConsumerWood</t>
-  </si>
-  <si>
     <t>imports Pulp</t>
   </si>
   <si>
@@ -839,24 +770,12 @@
     <t>imports RecycledPulp</t>
   </si>
   <si>
-    <t>imports RecycledWoodFibre</t>
-  </si>
-  <si>
-    <t>imports RecycledWoodFibreToPallets</t>
-  </si>
-  <si>
     <t>imports RefurbishedPallets</t>
   </si>
   <si>
-    <t>imports RoundwoodToFencingAndOutdoor</t>
-  </si>
-  <si>
     <t>imports SanitaryPapers</t>
   </si>
   <si>
-    <t>imports SawnwoodToFencingAndOutdoor</t>
-  </si>
-  <si>
     <t>imports SawnwoodToRMIAndOther</t>
   </si>
   <si>
@@ -924,6 +843,84 @@
   </si>
   <si>
     <t>imports IndustrialResidues</t>
+  </si>
+  <si>
+    <t>FibresForRecycling</t>
+  </si>
+  <si>
+    <t>FibresForRecyclingDelivery</t>
+  </si>
+  <si>
+    <t>FibresForRecyclingProcessingForPallets</t>
+  </si>
+  <si>
+    <t>FibresForRecyclingToPallets</t>
+  </si>
+  <si>
+    <t>WBPFibresFibresForRecycling</t>
+  </si>
+  <si>
+    <t>imports FibresForRecycling</t>
+  </si>
+  <si>
+    <t>imports FibresForRecyclingToPallets</t>
+  </si>
+  <si>
+    <t>exports FibresForRecycling</t>
+  </si>
+  <si>
+    <t>exports FibresForRecyclingToPallets</t>
+  </si>
+  <si>
+    <t>OtherEnergyFeedstocksFibresForRecycling</t>
+  </si>
+  <si>
+    <t>RoundwoodToFencing</t>
+  </si>
+  <si>
+    <t>RoundwoodToFencingManufacturing</t>
+  </si>
+  <si>
+    <t>SawnwoodToFencing</t>
+  </si>
+  <si>
+    <t>SawnwoodToFencingManufacturing</t>
+  </si>
+  <si>
+    <t>imports RoundwoodToFencing</t>
+  </si>
+  <si>
+    <t>imports SawnwoodToFencing</t>
+  </si>
+  <si>
+    <t>exports RoundwoodToFencing</t>
+  </si>
+  <si>
+    <t>exports SawnwoodToFencing</t>
+  </si>
+  <si>
+    <t>Pulpmills</t>
+  </si>
+  <si>
+    <t>ByProductsToOtherEnergyFeedstocks</t>
+  </si>
+  <si>
+    <t>ByProductsToPulpmills</t>
+  </si>
+  <si>
+    <t>ByProductsToWBPFibres</t>
+  </si>
+  <si>
+    <t>ForestResiduesToOtherEnergyFeedstocks</t>
+  </si>
+  <si>
+    <t>HardwoodRoundwoodToOtherEnergyFeedstocks</t>
+  </si>
+  <si>
+    <t>FibresForRecyclingToOtherEnergyFeedstocks</t>
+  </si>
+  <si>
+    <t>SoftwoodRoundwoodToOtherEnergyFeedstocks</t>
   </si>
 </sst>
 </file>
@@ -1310,15 +1307,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="3" max="3" width="35" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,7 +1360,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1377,13 +1374,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>15015605.639110001</v>
@@ -1392,10 +1389,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>289</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>563641718.42981195</v>
@@ -1404,10 +1401,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>321462693.94103003</v>
@@ -1416,10 +1413,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>1778971449.530683</v>
@@ -1428,10 +1425,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D9">
         <v>427985396.39196098</v>
@@ -1439,13 +1436,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1457,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1465,13 +1462,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1479,13 +1476,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D13">
         <v>2307413.6353739998</v>
@@ -1497,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>146479187.779618</v>
@@ -1505,13 +1502,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>148670967.02802899</v>
@@ -1519,13 +1516,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>20092135.139180999</v>
@@ -1534,10 +1531,10 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D17">
         <v>672879474.42106199</v>
@@ -1545,13 +1542,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>442357075.055287</v>
@@ -1560,10 +1557,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D19">
         <v>546581869.15665805</v>
@@ -1571,13 +1568,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>1292338.269505</v>
@@ -1589,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>65915634.500762999</v>
@@ -1597,13 +1594,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>66505937.122415014</v>
@@ -1611,13 +1608,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D23">
         <v>5780.6527910000004</v>
@@ -1626,10 +1623,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>208712303.15365699</v>
@@ -1637,13 +1634,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>208712302.65264001</v>
@@ -1652,10 +1649,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D26">
         <v>52178075.663191997</v>
@@ -1663,13 +1660,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D27">
         <v>5780.8930899999996</v>
@@ -1678,10 +1675,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>1091548045.319277</v>
@@ -1689,13 +1686,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>1091548045.28898</v>
@@ -1704,10 +1701,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D30">
         <v>272887011.32226998</v>
@@ -1715,13 +1712,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>114693320.459113</v>
@@ -1730,10 +1727,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32">
         <v>296974997.83406597</v>
@@ -1742,10 +1739,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>1984600382.8608601</v>
@@ -1754,10 +1751,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>37138176.915928997</v>
@@ -1766,10 +1763,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>170168351.38419399</v>
@@ -1778,10 +1775,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>19238757.101530999</v>
@@ -1790,10 +1787,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D37">
         <v>18781462.759436</v>
@@ -1802,10 +1799,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>190.198759</v>
@@ -1813,13 +1810,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>987609562.13660192</v>
@@ -1828,10 +1825,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D40">
         <v>109794470.102181</v>
@@ -1839,13 +1836,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D41">
         <v>5779.1947389999996</v>
@@ -1854,10 +1851,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>1984600387.3514471</v>
@@ -1865,13 +1862,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43">
         <v>1984600382.8608601</v>
@@ -1879,13 +1876,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44">
         <v>86487.361695</v>
@@ -1897,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45">
         <v>43758594.499334</v>
@@ -1905,13 +1902,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46">
         <v>43206888.864742003</v>
@@ -1919,13 +1916,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D47">
         <v>4561122.2077279994</v>
@@ -1934,10 +1931,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>463489373.53515399</v>
@@ -1945,13 +1942,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <v>354473116.86261702</v>
@@ -1960,10 +1957,10 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D50">
         <v>439083389.74290299</v>
@@ -1971,13 +1968,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D51">
         <v>5780.9003220000004</v>
@@ -1986,10 +1983,10 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D52">
         <v>8040172275.1472158</v>
@@ -1997,13 +1994,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>8040172275.1351175</v>
@@ -2011,13 +2008,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D54">
         <v>1032678.320744</v>
@@ -2026,10 +2023,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D55">
         <v>6423204.0083079999</v>
@@ -2037,13 +2034,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56">
         <v>4026663.104239</v>
@@ -2051,13 +2048,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D57">
         <v>574603795.88024998</v>
@@ -2066,10 +2063,10 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58">
         <v>5046495833.1549253</v>
@@ -2077,13 +2074,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <v>1525440171.3285301</v>
@@ -2091,13 +2088,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60">
         <v>111049024.93883599</v>
@@ -2106,10 +2103,10 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D61">
         <v>612573561.76420999</v>
@@ -2118,10 +2115,10 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D62">
         <v>69589833.587141007</v>
@@ -2129,13 +2126,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63">
         <v>694889966.76072502</v>
@@ -2143,13 +2140,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D64">
         <v>23762765.864872999</v>
@@ -2158,10 +2155,10 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D65">
         <v>13618735.631327</v>
@@ -2170,10 +2167,10 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D66">
         <v>384344492.74237698</v>
@@ -2182,10 +2179,10 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D67">
         <v>40228074.58788</v>
@@ -2194,10 +2191,10 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D68">
         <v>183139835.656883</v>
@@ -2206,10 +2203,10 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D69">
         <v>20838148.108410999</v>
@@ -2218,10 +2215,10 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D70">
         <v>20289186.76052</v>
@@ -2230,10 +2227,10 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D71">
         <v>233.64498800000001</v>
@@ -2244,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D72">
         <v>578407629.89489698</v>
@@ -2255,13 +2252,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <v>725826.19307399995</v>
@@ -2273,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D74">
         <v>109859390.834709</v>
@@ -2281,13 +2278,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D75">
         <v>109719198.453697</v>
@@ -2295,13 +2292,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D76">
         <v>151749.41511599999</v>
@@ -2310,10 +2307,10 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D77">
         <v>578407757.72583699</v>
@@ -2321,13 +2318,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="D78">
         <v>5780.9114600000003</v>
@@ -2335,13 +2332,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D79">
         <v>262518943.13050401</v>
@@ -2350,10 +2347,10 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D80">
         <v>362189027.57776302</v>
@@ -2361,13 +2358,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D81">
         <v>5780.8559999999998</v>
@@ -2376,10 +2373,10 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D82">
         <v>14522072128.182699</v>
@@ -2387,13 +2384,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>289</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D83">
         <v>563641718.42981195</v>
@@ -2401,13 +2398,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D84">
         <v>8040172275.1472158</v>
@@ -2415,13 +2412,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D85">
         <v>612573561.76420999</v>
@@ -2429,13 +2426,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D86">
         <v>4560680194.624445</v>
@@ -2443,13 +2440,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D87">
         <v>14354433241.11768</v>
@@ -2457,13 +2454,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D88">
         <v>577365491.13030493</v>
@@ -2471,13 +2468,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D89">
         <v>5780.875035</v>
@@ -2486,10 +2483,10 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D90">
         <v>14354433241.11768</v>
@@ -2497,13 +2494,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91">
         <v>11600135.012425</v>
@@ -2512,10 +2509,10 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D92">
         <v>145123904.30281699</v>
@@ -2523,13 +2520,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D93">
         <v>5781.6493899999996</v>
@@ -2537,13 +2534,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D94">
         <v>145123904.30281699</v>
@@ -2551,13 +2548,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D95">
         <v>5780.5322729999998</v>
@@ -2566,10 +2563,10 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D96">
         <v>145123905.05526</v>
@@ -2577,13 +2574,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D97">
         <v>118631399.955505</v>
@@ -2592,10 +2589,10 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D98">
         <v>293420125.15121698</v>
@@ -2603,13 +2600,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D99">
         <v>1714698.7339570001</v>
@@ -2618,10 +2615,10 @@
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D100">
         <v>498651.803212</v>
@@ -2629,13 +2626,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D101">
         <v>5780.8427510000001</v>
@@ -2644,10 +2641,10 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D102">
         <v>493636458.056113</v>
@@ -2655,13 +2652,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D103">
         <v>291070667.81137502</v>
@@ -2669,13 +2666,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2684,10 +2681,10 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D105">
         <v>122155128.538976</v>
@@ -2695,13 +2692,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D106">
         <v>122155128.538977</v>
@@ -2710,10 +2707,10 @@
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D107">
         <v>15404099.800732</v>
@@ -2721,13 +2718,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D108">
         <v>616972450.09587502</v>
@@ -2736,10 +2733,10 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D109">
         <v>7068336009.968955</v>
@@ -2747,13 +2744,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D110">
         <v>3578438542.5052309</v>
@@ -2761,13 +2758,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D111">
         <v>136859572.90905499</v>
@@ -2776,10 +2773,10 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D112">
         <v>1988567165.3553181</v>
@@ -2787,13 +2784,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D113">
         <v>1985279307.9323549</v>
@@ -2802,10 +2799,10 @@
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D114">
         <v>222903507.41756499</v>
@@ -2813,13 +2810,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D115">
         <v>376613426.58780402</v>
@@ -2828,10 +2825,10 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D116">
         <v>295323370.82703203</v>
@@ -2840,10 +2837,10 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D117">
         <v>27624239.901521999</v>
@@ -2852,10 +2849,10 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D118">
         <v>4187521449.5245628</v>
@@ -2864,10 +2861,10 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D119">
         <v>117564106.302834</v>
@@ -2876,10 +2873,10 @@
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D120">
         <v>539311140.49396598</v>
@@ -2888,10 +2885,10 @@
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D121">
         <v>61068732.740030997</v>
@@ -2900,10 +2897,10 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D122">
         <v>59721263.952783003</v>
@@ -2912,10 +2909,10 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D123">
         <v>594.64964799999996</v>
@@ -2923,13 +2920,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D124">
         <v>3614198881.2962308</v>
@@ -2938,10 +2935,10 @@
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D125">
         <v>402405098.493213</v>
@@ -2949,13 +2946,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D126">
         <v>5780.906688</v>
@@ -2964,10 +2961,10 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D127">
         <v>3768466659.8263822</v>
@@ -2975,13 +2972,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D128">
         <v>3768466659.826746</v>
@@ -2990,10 +2987,10 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D129">
         <v>419054789.69791102</v>
@@ -3001,13 +2998,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D130">
         <v>82556245.512599006</v>
@@ -3016,10 +3013,10 @@
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D131">
         <v>41430436.816120997</v>
@@ -3028,10 +3025,10 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D132">
         <v>220671579.09740701</v>
@@ -3040,10 +3037,10 @@
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D133">
         <v>1008974349.644792</v>
@@ -3052,10 +3049,10 @@
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D134">
         <v>6259142.7701509995</v>
@@ -3064,10 +3061,10 @@
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D135">
         <v>28567875.719080001</v>
@@ -3076,10 +3073,10 @@
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D136">
         <v>3182425.7425330002</v>
@@ -3088,10 +3085,10 @@
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D137">
         <v>3141611.0411840002</v>
@@ -3100,10 +3097,10 @@
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D138">
         <v>36.79737210932025</v>
@@ -3111,13 +3108,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D139">
         <v>5780.9018960000003</v>
@@ -3125,13 +3122,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D140">
         <v>5780.8895909999992</v>
@@ -3140,10 +3137,10 @@
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D141">
         <v>908172615.92726696</v>
@@ -3151,13 +3148,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D142">
         <v>908172615.89974606</v>
@@ -3166,10 +3163,10 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D143">
         <v>100801733.745101</v>
@@ -3177,13 +3174,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="D144">
         <v>4087.7282580000001</v>
@@ -3191,13 +3188,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D145">
         <v>5780.9114600000003</v>
@@ -3205,13 +3202,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D146">
         <v>5780.9344380000002</v>
@@ -3220,10 +3217,10 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D147">
         <v>5392944006.6150026</v>
@@ -3231,13 +3228,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D148">
         <v>0.47447800000000001</v>
@@ -3246,10 +3243,10 @@
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D149">
         <v>380049733.519319</v>
@@ -3258,10 +3255,10 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D150">
         <v>188793812.327654</v>
@@ -3270,10 +3267,10 @@
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D151">
         <v>1321517382.011117</v>
@@ -3282,10 +3279,10 @@
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D152">
         <v>964859771.04628396</v>
@@ -3293,13 +3290,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D153">
         <v>25714520.466565002</v>
@@ -3308,10 +3305,10 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D154">
         <v>295748173.47442102</v>
@@ -3319,13 +3316,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D155">
         <v>940432534.94975102</v>
@@ -3334,10 +3331,10 @@
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D156">
         <v>4003993897.9013848</v>
@@ -3345,13 +3342,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D157">
         <v>1714551.6702660001</v>
@@ -3360,10 +3357,10 @@
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D158">
         <v>459594544.95382398</v>
@@ -3371,13 +3368,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D159">
         <v>384344492.74237698</v>
@@ -3385,13 +3382,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D160">
         <v>6887009820.6906033</v>
@@ -3400,10 +3397,10 @@
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D161">
         <v>4944426432.8510885</v>
@@ -3411,13 +3408,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D162">
         <v>11699304945.62211</v>
@@ -3425,13 +3422,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D163">
         <v>5780.8739880000003</v>
@@ -3440,10 +3437,10 @@
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D164">
         <v>1145390437.809247</v>
@@ -3452,10 +3449,10 @@
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D165">
         <v>102276855.483743</v>
@@ -3464,10 +3461,10 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D166">
         <v>2256921160.4941711</v>
@@ -3476,10 +3473,10 @@
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D167">
         <v>499405444.19293612</v>
@@ -3487,13 +3484,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="D168">
         <v>263115763.135575</v>
@@ -3502,10 +3499,10 @@
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="1" t="s">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="D169">
         <v>4560680194.624445</v>
@@ -3514,10 +3511,10 @@
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="1" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="D170">
         <v>2454545181.5715508</v>
@@ -3526,10 +3523,10 @@
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="1" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="D171">
         <v>1315778619.98228</v>
@@ -3537,13 +3534,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="D172">
         <v>8557031503.620863</v>
@@ -3551,13 +3548,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="D173">
         <v>2454545181.5715508</v>
@@ -3565,13 +3562,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="D174">
         <v>5780.9009830000005</v>
@@ -3580,10 +3577,10 @@
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="D175">
         <v>2454545181.5906959</v>
@@ -3591,13 +3588,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D176">
         <v>5780.9079069999998</v>
@@ -3606,10 +3603,10 @@
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D177">
         <v>2450117572.9380569</v>
@@ -3617,13 +3614,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D178">
         <v>276731566.49477297</v>
@@ -3632,10 +3629,10 @@
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D179">
         <v>2450117572.9314609</v>
@@ -3643,13 +3640,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3658,10 +3655,10 @@
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="D181">
         <v>260890378.315817</v>
@@ -3669,13 +3666,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="D182">
         <v>260890378.315817</v>
@@ -3683,13 +3680,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D183">
         <v>14276785.693871001</v>
@@ -3698,10 +3695,10 @@
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D184">
         <v>2088783032.68643</v>
@@ -3709,13 +3706,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D185">
         <v>1464265215.239126</v>
@@ -3723,13 +3720,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D186">
         <v>34793847.224462003</v>
@@ -3738,10 +3735,10 @@
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D187">
         <v>34795986.362630002</v>
@@ -3749,13 +3746,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D188">
         <v>3051360638.6817598</v>
@@ -3764,10 +3761,10 @@
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D189">
         <v>3050813893.4503279</v>
@@ -3775,13 +3772,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3790,10 +3787,10 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="D191">
         <v>1364435056.6113069</v>
@@ -3801,13 +3798,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="D192">
         <v>1364435056.6113069</v>
@@ -3815,13 +3812,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D193">
         <v>5778.6470650000001</v>
@@ -3830,10 +3827,10 @@
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D194">
         <v>3408149835.473628</v>
@@ -3841,13 +3838,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D195">
         <v>378367601.789774</v>
@@ -3856,10 +3853,10 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D196">
         <v>3408149829.550961</v>
@@ -3867,13 +3864,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D197">
         <v>355265.79053300002</v>
@@ -3885,7 +3882,7 @@
         <v>5</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D198">
         <v>197746903.502464</v>
@@ -3893,13 +3890,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D199">
         <v>196855730.596497</v>
@@ -3907,13 +3904,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D200">
         <v>272176647.46763802</v>
@@ -3922,10 +3919,10 @@
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="1" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D201">
         <v>624707970.70825493</v>
@@ -3934,10 +3931,10 @@
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D202">
         <v>577365491.13030493</v>
@@ -3946,10 +3943,10 @@
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="1" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D203">
         <v>260890378.315817</v>
@@ -3958,10 +3955,10 @@
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D204">
         <v>6102174532.1320992</v>
@@ -3970,10 +3967,10 @@
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D205">
         <v>1658035718.3280771</v>
@@ -3982,10 +3979,10 @@
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D206">
         <v>5781.2010289999998</v>
@@ -3994,10 +3991,10 @@
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D207">
         <v>491667112.22022313</v>
@@ -4006,10 +4003,10 @@
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D208">
         <v>5787.1423260000001</v>
@@ -4017,13 +4014,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D209">
         <v>9181499420.8306084</v>
@@ -4031,13 +4028,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D210">
         <v>208472923.37142</v>
@@ -4046,10 +4043,10 @@
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D211">
         <v>370202515.46736699</v>
@@ -4058,10 +4055,10 @@
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D212">
         <v>793556506.60548091</v>
@@ -4070,10 +4067,10 @@
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D213">
         <v>4026663.104239</v>
@@ -4082,10 +4079,10 @@
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D214">
         <v>2213350.5371269998</v>
@@ -4094,10 +4091,10 @@
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D215">
         <v>54885815.990754999</v>
@@ -4106,10 +4103,10 @@
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D216">
         <v>1987511236.2525499</v>
@@ -4118,10 +4115,10 @@
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D217">
         <v>272303957.83555299</v>
@@ -4130,10 +4127,10 @@
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="1" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D218">
         <v>1364435056.6113069</v>
@@ -4142,10 +4139,10 @@
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D219">
         <v>3786517431.3407092</v>
@@ -4154,10 +4151,10 @@
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D220">
         <v>30076698.387987811</v>
@@ -4166,10 +4163,10 @@
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D221">
         <v>294739832.42983299</v>
@@ -4178,10 +4175,10 @@
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D222">
         <v>131633909.712805</v>
@@ -4190,10 +4187,10 @@
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D223">
         <v>231579589.07732999</v>
@@ -4202,10 +4199,10 @@
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D224">
         <v>70914158.503125995</v>
@@ -4214,10 +4211,10 @@
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D225">
         <v>325879851.46060401</v>
@@ -4226,10 +4223,10 @@
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D226">
         <v>37058016.430731997</v>
@@ -4238,10 +4235,10 @@
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D227">
         <v>36142859.072691001</v>
@@ -4250,10 +4247,10 @@
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D228">
         <v>428.77594499999998</v>
@@ -4261,13 +4258,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D229">
         <v>1.2777639999999999</v>
@@ -4276,10 +4273,10 @@
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D230">
         <v>26552234.692738779</v>
@@ -4288,10 +4285,10 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D231">
         <v>36912977.305021003</v>
@@ -4300,10 +4297,10 @@
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D232">
         <v>169453004.34327</v>
@@ -4312,10 +4309,10 @@
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D233">
         <v>19077632.480763</v>
@@ -4324,10 +4321,10 @@
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D234">
         <v>18644308.004735999</v>
@@ -4336,10 +4333,10 @@
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D235">
         <v>120.708624</v>
@@ -4347,13 +4344,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D236">
         <v>108763899.93523</v>
@@ -4361,13 +4358,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D237">
         <v>0.32204899999999997</v>
@@ -4376,10 +4373,10 @@
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D238">
         <v>1097404032.2388151</v>
@@ -4388,10 +4385,10 @@
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D239">
         <v>4016603979.789526</v>
@@ -4399,13 +4396,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D240">
         <v>1778971449.530683</v>
@@ -4413,13 +4410,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D241">
         <v>1315778619.98228</v>
@@ -4427,13 +4424,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D242">
         <v>1658035718.3280771</v>
@@ -4441,13 +4438,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D243">
         <v>5304167.5161140002</v>
@@ -4456,10 +4453,10 @@
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D244">
         <v>87239898.675159901</v>
@@ -4467,13 +4464,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D245">
         <v>15051989.50640573</v>
@@ -4482,10 +4479,10 @@
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D246">
         <v>15027762.66350797</v>
@@ -4493,13 +4490,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D247">
         <v>6995479.1746149994</v>
@@ -4508,10 +4505,10 @@
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D248">
         <v>167638887.007763</v>
@@ -4519,13 +4516,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D249">
         <v>5781.2010289999998</v>
@@ -4533,13 +4530,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D250">
         <v>167638887.007763</v>
@@ -4547,13 +4544,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D251">
         <v>24449429.497113001</v>
@@ -4562,10 +4559,10 @@
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D252">
         <v>6159864.7596050007</v>
@@ -4574,10 +4571,10 @@
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
       <c r="B253" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D253">
         <v>60851349.543963999</v>
@@ -4586,10 +4583,10 @@
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D254">
         <v>27207344.615830999</v>
@@ -4598,10 +4595,10 @@
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D255">
         <v>22692742.845977999</v>
@@ -4610,10 +4607,10 @@
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D256">
         <v>44901921.821679004</v>
@@ -4622,10 +4619,10 @@
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D257">
         <v>80581376.137876004</v>
@@ -4633,13 +4630,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D258">
         <v>29877646.459098998</v>
@@ -4648,10 +4645,10 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D259">
         <v>264862185.97081101</v>
@@ -4659,13 +4656,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D260">
         <v>151441.76723299999</v>
@@ -4674,10 +4671,10 @@
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D261">
         <v>3384752.5001099999</v>
@@ -4686,10 +4683,10 @@
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D262">
         <v>32819958.063108999</v>
@@ -4698,10 +4695,10 @@
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
       <c r="B263" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D263">
         <v>14713008.202246999</v>
@@ -4710,10 +4707,10 @@
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D264">
         <v>24236400.573646002</v>
@@ -4722,10 +4719,10 @@
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
       <c r="B265" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D265">
         <v>43438023.725681998</v>
@@ -4733,13 +4730,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D266">
         <v>13150285.421705</v>
@@ -4748,10 +4745,10 @@
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
       <c r="B267" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D267">
         <v>118483624.29108199</v>
@@ -4759,13 +4756,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D268">
         <v>49080034.933637001</v>
@@ -4774,10 +4771,10 @@
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
       <c r="B269" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D269">
         <v>13904787121.97789</v>
@@ -4785,13 +4782,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D270">
         <v>334951191.82108998</v>
@@ -4800,10 +4797,10 @@
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D271">
         <v>775254996.39666295</v>
@@ -4811,13 +4808,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D272">
         <v>427985396.39196098</v>
@@ -4825,13 +4822,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D273">
         <v>491667112.22022313</v>
@@ -4839,13 +4836,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D274">
         <v>0.62317200000000006</v>
@@ -4854,10 +4851,10 @@
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D275">
         <v>1110206188.2177529</v>
@@ -4865,13 +4862,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D276">
         <v>4585129.8901239997</v>
@@ -4880,10 +4877,10 @@
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D277">
         <v>5557135.2277339986</v>
@@ -4892,10 +4889,10 @@
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D278">
         <v>54999659.420978002</v>
@@ -4904,10 +4901,10 @@
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D279">
         <v>24585584.304251999</v>
@@ -4916,10 +4913,10 @@
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
       <c r="B280" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D280">
         <v>20514146.018780999</v>
@@ -4928,10 +4925,10 @@
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D281">
         <v>40580876.058399998</v>
@@ -4940,10 +4937,10 @@
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D282">
         <v>72836330.732999995</v>
@@ -4951,13 +4948,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D283">
         <v>23576856.484306</v>
@@ -4966,10 +4963,10 @@
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D284">
         <v>208002732.59307399</v>
@@ -4977,13 +4974,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D285">
         <v>312601.479307</v>
@@ -4992,10 +4989,10 @@
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D286">
         <v>10301092.428695999</v>
@@ -5003,13 +5000,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D287">
         <v>5787.1423260000001</v>
@@ -5017,13 +5014,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D288">
         <v>22611506.385306001</v>
@@ -5032,10 +5029,10 @@
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D289">
         <v>565470027.99938297</v>
@@ -5043,13 +5040,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D290">
         <v>77283331.732777998</v>
@@ -5058,10 +5055,10 @@
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D291">
         <v>231733304.652071</v>
@@ -5069,13 +5066,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D292">
         <v>22620628.160050001</v>
@@ -5084,10 +5081,10 @@
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D293">
         <v>1104649012.531357</v>
@@ -5095,13 +5092,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D294">
         <v>354614258.11033303</v>
@@ -5110,10 +5107,10 @@
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D295">
         <v>1061905800.947636</v>
@@ -5121,13 +5118,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D296">
         <v>20050562.728459999</v>
@@ -5136,10 +5133,10 @@
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
       <c r="B297" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D297">
         <v>166124102.350003</v>
@@ -5147,13 +5144,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D298">
         <v>40139724.845942996</v>
@@ -5162,10 +5159,10 @@
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
       <c r="B299" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D299">
         <v>120323987.757982</v>
@@ -5173,13 +5170,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D300">
         <v>75109309.564770997</v>
@@ -5188,10 +5185,10 @@
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
       <c r="B301" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D301">
         <v>985222829.74525297</v>
@@ -5199,13 +5196,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D302">
         <v>39167744.754414</v>
@@ -5214,10 +5211,10 @@
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
       <c r="B303" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D303">
         <v>117552946.83705799</v>
@@ -5225,13 +5222,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D304">
         <v>60066001.517725997</v>
@@ -5240,10 +5237,10 @@
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
       <c r="B305" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D305">
         <v>231152153.11149099</v>
@@ -5251,13 +5248,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D306">
         <v>398.78616099999999</v>
@@ -5266,10 +5263,10 @@
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
       <c r="B307" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D307">
         <v>1205.9486429999999</v>
@@ -5277,7 +5274,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>6</v>
@@ -5291,13 +5288,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D309">
         <v>20922378.0264</v>
@@ -5305,13 +5302,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -5319,13 +5316,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D311">
         <v>115634.388427</v>
@@ -5333,13 +5330,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D312">
         <v>250614534.504926</v>
@@ -5347,13 +5344,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D313">
         <v>702035.64812000003</v>
@@ -5361,13 +5358,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D314">
         <v>5781.15373</v>
@@ -5375,13 +5372,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D315">
         <v>5780.9233210000002</v>
@@ -5389,13 +5386,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D316">
         <v>1653986077.3771689</v>
@@ -5403,13 +5400,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D317">
         <v>5783.6853039999996</v>
@@ -5417,13 +5414,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D318">
         <v>638192.99616700003</v>
@@ -5431,13 +5428,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D319">
         <v>113577378.88023201</v>
@@ -5445,13 +5442,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D320">
         <v>5780.9124819999997</v>
@@ -5459,13 +5456,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D321">
         <v>3429219.224779</v>
@@ -5473,13 +5470,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D322">
         <v>4095659457.7066531</v>
@@ -5487,13 +5484,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D323">
         <v>98322453.529496998</v>
@@ -5501,13 +5498,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D324">
         <v>651425486.63447905</v>
@@ -5515,13 +5512,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D325">
         <v>866018.57412999996</v>
@@ -5529,13 +5526,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D326">
         <v>151877.246105</v>
@@ -5543,13 +5540,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="D327">
         <v>5780.9114600000003</v>
@@ -5557,13 +5554,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D328">
         <v>5780.913305</v>
@@ -5571,13 +5568,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D329">
         <v>5780.8967149999999</v>
@@ -5585,13 +5582,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D330">
         <v>156718257.66574201</v>
@@ -5599,13 +5596,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D331">
         <v>5781.2848169999997</v>
@@ -5613,13 +5610,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D332">
         <v>410336826.37276</v>
@@ -5627,13 +5624,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D333">
         <v>202571571.08762899</v>
@@ -5641,13 +5638,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -5655,13 +5652,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D335">
         <v>4106869917.559577</v>
@@ -5669,13 +5666,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D336">
         <v>140147430.33204299</v>
@@ -5683,13 +5680,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D337">
         <v>2050549443.6839521</v>
@@ -5697,13 +5694,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D338">
         <v>5780.9063500000002</v>
@@ -5711,13 +5708,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D339">
         <v>1394777922.198802</v>
@@ -5725,13 +5722,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D340">
         <v>5780.9171390000001</v>
@@ -5739,13 +5736,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="D341">
         <v>4087.7282580000001</v>
@@ -5753,13 +5750,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D342">
         <v>5780.9114600000003</v>
@@ -5767,13 +5764,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D343">
         <v>5780.8923340000001</v>
@@ -5781,13 +5778,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D344">
         <v>2197283498.3264332</v>
@@ -5795,13 +5792,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D345">
         <v>76964603.881668001</v>
@@ -5809,13 +5806,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D346">
         <v>132131307.91957401</v>
@@ -5823,13 +5820,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D347">
         <v>5780.9526459999997</v>
@@ -5837,13 +5834,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="D348">
         <v>37088255.692978002</v>
@@ -5851,13 +5848,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="D349">
         <v>5780.9201869999997</v>
@@ -5865,13 +5862,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D350">
         <v>5780.9144889999998</v>
@@ -5879,13 +5876,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -5893,13 +5890,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D352">
         <v>638794603.14119101</v>
@@ -5907,13 +5904,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -5921,13 +5918,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D354">
         <v>5784.5698600000014</v>
@@ -5935,13 +5932,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D355">
         <v>1246438.6963490001</v>
@@ -5949,13 +5946,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D356">
         <v>805529997.81516302</v>
@@ -5963,13 +5960,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D357">
         <v>6950885757.0414171</v>
@@ -5977,13 +5974,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D358">
         <v>161762204.26858699</v>
@@ -5991,13 +5988,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D359">
         <v>361222224.50929999</v>
@@ -6005,13 +6002,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D360">
         <v>77525122.997352004</v>
@@ -6019,13 +6016,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D361">
         <v>174628584.98128799</v>
@@ -6033,13 +6030,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D362">
         <v>1981843.252566</v>
@@ -6047,13 +6044,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D363">
         <v>259960.54079900001</v>
@@ -6061,13 +6058,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D364">
         <v>13178612160.514851</v>
@@ -6075,13 +6072,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D365">
         <v>190553680.22875601</v>
@@ -6089,13 +6086,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D366">
         <v>15656129.06079</v>
@@ -6103,13 +6100,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D367">
         <v>10607906.765696</v>
@@ -6117,13 +6114,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D368">
         <v>356348229.73271</v>
@@ -6131,13 +6128,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D369">
         <v>65363839.743869998</v>
@@ -6145,13 +6142,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D370">
         <v>65850677.320541002</v>
@@ -6159,13 +6156,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D371">
         <v>942779192.47298396</v>
@@ -6173,13 +6170,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D372">
         <v>291216948.68054801</v>
